--- a/Documents/하늘보리 기능 정의 및 product backlog.xlsx
+++ b/Documents/하늘보리 기능 정의 및 product backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joey3\HaneulBori\HaneulBori\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joey3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C394D57-4321-40EF-8FE4-9D273851D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B5A1A-B562-4B14-ACF0-542056EA13FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="525" windowWidth="13665" windowHeight="13905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3336" yWindow="612" windowWidth="19656" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
   <si>
     <t>구분</t>
   </si>
@@ -1430,10 +1430,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>example</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>우선순위 1 : 핵심 기능, 2 : 부가 기능, 3 : 고려할 만한 기능</t>
   </si>
   <si>
@@ -1694,6 +1690,10 @@
       </rPr>
       <t xml:space="preserve"> 수 </t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1950,12 +1950,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="36"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1977,7 +1971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2159,139 +2153,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2410,21 +2276,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2437,101 +2294,10 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2548,25 +2314,148 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2665,7 +2554,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'burn down chart'!$B$7</c:f>
+              <c:f>'burn down chart'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2700,10 +2589,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'burn down chart'!$C$6:$L$6</c:f>
+              <c:f>'burn down chart'!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2722,56 +2611,17 @@
                 <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'burn down chart'!$C$7:$L$7</c:f>
+              <c:f>'burn down chart'!$C$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,7 +2638,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'burn down chart'!$B$8</c:f>
+              <c:f>'burn down chart'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2823,10 +2673,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'burn down chart'!$C$6:$L$6</c:f>
+              <c:f>'burn down chart'!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2845,55 +2695,31 @@
                 <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'burn down chart'!$C$8:$L$8</c:f>
+              <c:f>'burn down chart'!$C$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>93.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.555555555555557</c:v>
+                  <c:v>74.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.111111111111114</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.666666666666657</c:v>
+                  <c:v>37.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.222222222222221</c:v>
+                  <c:v>18.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.888888888888886</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.444444444444443</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3656,16 +3482,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>718185</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3900,17 +3726,17 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+    <row r="1" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -3934,7 +3760,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>55</v>
       </c>
@@ -3963,20 +3789,20 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="77" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
@@ -3984,22 +3810,22 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="73"/>
+    <row r="4" spans="1:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -4016,9 +3842,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="75"/>
-      <c r="B6" s="77"/>
+    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="65"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="16" t="s">
         <v>42</v>
       </c>
@@ -4035,9 +3861,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="75"/>
-      <c r="B7" s="77"/>
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="17" t="s">
         <v>43</v>
       </c>
@@ -4048,15 +3874,15 @@
         <v>3</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="60" t="s">
-        <v>80</v>
+      <c r="G7" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="77"/>
+    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="65"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="17" t="s">
         <v>44</v>
       </c>
@@ -4068,14 +3894,14 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
-      <c r="B9" s="77"/>
+    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
@@ -4090,9 +3916,9 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
-      <c r="B10" s="70" t="s">
+    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="79" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4109,9 +3935,9 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
-      <c r="B11" s="70"/>
+    <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
@@ -4126,16 +3952,16 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="71" t="s">
+    <row r="12" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="74" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="27">
         <v>1</v>
@@ -4145,14 +3971,14 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
-      <c r="B13" s="71"/>
+    <row r="13" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="27">
         <v>1</v>
@@ -4162,9 +3988,9 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
-      <c r="B14" s="71" t="s">
+    <row r="14" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="65"/>
+      <c r="B14" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -4181,9 +4007,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
-      <c r="B15" s="71"/>
+    <row r="15" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="19" t="s">
         <v>27</v>
       </c>
@@ -4198,8 +4024,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
+    <row r="16" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
       <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
@@ -4217,8 +4043,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="68" t="s">
+    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -4238,9 +4064,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="67" t="s">
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -4257,9 +4083,9 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="67"/>
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
@@ -4274,9 +4100,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="67"/>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
@@ -4291,8 +4117,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
       <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
@@ -4310,11 +4136,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="68" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -4331,9 +4157,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="66"/>
+    <row r="23" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="67"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="31" t="s">
         <v>17</v>
       </c>
@@ -4348,7 +4174,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -4359,7 +4185,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
@@ -4367,7 +4193,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4378,7 +4204,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4389,40 +4215,40 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="77" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="73"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74" t="s">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="67"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="78"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -4435,9 +4261,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="77"/>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="16" t="s">
         <v>42</v>
       </c>
@@ -4448,9 +4274,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="77"/>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="17" t="s">
         <v>43</v>
       </c>
@@ -4461,9 +4287,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
-      <c r="B35" s="77"/>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="17" t="s">
         <v>44</v>
       </c>
@@ -4474,9 +4300,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="75"/>
-      <c r="B36" s="77"/>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
@@ -4487,9 +4313,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="75"/>
-      <c r="B37" s="78" t="s">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="65"/>
+      <c r="B37" s="73" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -4502,9 +4328,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
-      <c r="B38" s="78"/>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="35" t="s">
         <v>21</v>
       </c>
@@ -4515,37 +4341,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="71" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="74" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="71"/>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
-      <c r="B41" s="71" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -4558,9 +4384,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="75"/>
-      <c r="B42" s="71"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="65"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="19" t="s">
         <v>27</v>
       </c>
@@ -4571,8 +4397,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="75"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="65"/>
       <c r="B43" s="22" t="s">
         <v>36</v>
       </c>
@@ -4586,8 +4412,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68" t="s">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -4603,9 +4429,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="75"/>
-      <c r="B45" s="67" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="66" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="16" t="s">
@@ -4618,9 +4444,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="67"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="13" t="s">
         <v>32</v>
       </c>
@@ -4631,9 +4457,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="67"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="13" t="s">
         <v>34</v>
       </c>
@@ -4644,8 +4470,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65"/>
       <c r="B48" s="20" t="s">
         <v>19</v>
       </c>
@@ -4659,11 +4485,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68" t="s">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="68" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -4676,9 +4502,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="66"/>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="67"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="31" t="s">
         <v>17</v>
       </c>
@@ -4691,6 +4517,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A49:A50"/>
@@ -4700,26 +4546,6 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4729,652 +4555,823 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA63E826-C53F-44DA-A733-3EE59F2BB8B6}">
-  <dimension ref="A4:E72"/>
+  <dimension ref="A4:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="81" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="91" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="73"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>1</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="105">
         <f>D16</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="48">
+        <f>E16</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>2</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="87">
         <f>D26</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="49">
+        <f>E26</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>3</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="85">
         <f>D36</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="50">
+        <f>E36</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>4</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="85">
         <f>D46</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="50">
+        <f>E46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>5</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="87">
         <f>D56</f>
         <v>2</v>
       </c>
-      <c r="E11" s="93" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="49">
+        <f>E56</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43">
         <v>6</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="93">
         <f>D66</f>
         <v>32</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="94">
+        <f>E66</f>
+        <v>4</v>
+      </c>
+      <c r="G12">
         <f>SUM(D7:D12)</f>
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
+      <c r="H12">
+        <f>SUM(E7:E12)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="91" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="85"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="E14" s="84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="102"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>1</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="105">
         <f>SUM(D17:D22)</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="92"/>
+      <c r="E16" s="48">
+        <f>SUM(E17:E22)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
       <c r="B17" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="87">
+        <v>8</v>
+      </c>
+      <c r="E17" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C18" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D18" s="85">
+        <v>4</v>
+      </c>
+      <c r="E18" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="87">
+        <v>24</v>
+      </c>
+      <c r="E19" s="49">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="90"/>
-      <c r="B18" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="90"/>
-      <c r="B19" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="52">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="52"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="90"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="52"/>
-    </row>
-    <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="54"/>
-    </row>
-    <row r="23" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="88" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="49"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="49"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="57"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="91" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="85"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="42">
+      <c r="E24" s="84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="78"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="60">
         <v>2</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="99">
         <f>SUM(D27:D32)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="92"/>
+      <c r="E26" s="62">
+        <f>SUM(E27:E32)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
       <c r="B27" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="D27" s="87">
+        <v>4</v>
+      </c>
+      <c r="E27" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="85">
+        <v>2</v>
+      </c>
+      <c r="E28" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="90"/>
-      <c r="B28" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="90"/>
-      <c r="B29" s="40" t="s">
+      <c r="C29" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="52">
+      <c r="D29" s="87">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="90"/>
-      <c r="D30" s="52"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="90"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="52"/>
-    </row>
-    <row r="32" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="54"/>
-    </row>
-    <row r="33" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="88" t="s">
+      <c r="E29" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="49"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="49"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="57"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="51"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="91" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="85"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="42">
+      <c r="E34" s="84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="78"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="60">
         <v>3</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="105">
         <f>SUM(D37:D42)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="92"/>
-      <c r="B37" s="47" t="s">
+      <c r="E36" s="48">
+        <f>SUM(E37:E42)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="58"/>
+      <c r="B37" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="52">
+      <c r="C37" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="87">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="90"/>
+      <c r="E37" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
       <c r="B38" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="53">
+      <c r="C38" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="85">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
+      <c r="E38" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="56"/>
       <c r="B39" s="40"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="52"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="52"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="52"/>
-    </row>
-    <row r="42" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="54"/>
-    </row>
-    <row r="43" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="88" t="s">
+      <c r="C39" s="86"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="49"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="49"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="49"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="57"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="51"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="86" t="s">
+      <c r="B44" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="84" t="s">
+      <c r="D44" s="91" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="85"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="42">
+      <c r="E44" s="84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="102"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="78"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="60">
         <v>4</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="99">
         <f>SUM(D47:D52)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="92"/>
-      <c r="B47" s="47" t="s">
+      <c r="E46" s="62">
+        <f>SUM(E47:E52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="D47" s="87">
+        <v>8</v>
+      </c>
+      <c r="E47" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="90"/>
-      <c r="B48" s="40" t="s">
+      <c r="C48" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="53">
+      <c r="D48" s="85">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
+      <c r="E48" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
       <c r="B49" s="40"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="52"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="90"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="52"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="52"/>
-    </row>
-    <row r="52" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="54"/>
-    </row>
-    <row r="53" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="81" t="s">
+      <c r="C49" s="86"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="49"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="49"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="57"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="51"/>
+    </row>
+    <row r="53" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="82" t="s">
+      <c r="B54" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="91" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="73"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="42">
+      <c r="E54" s="84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="78"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="60">
         <v>5</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="48" t="s">
+      <c r="C56" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="99">
         <f>SUM(D57:D62)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="62">
+        <f>SUM(E57:E62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="52">
+      <c r="D57" s="87">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="53"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="88"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="50"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="52"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="88"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="49"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="40"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="52"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="86"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="49"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="52"/>
-    </row>
-    <row r="62" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="46"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="49"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="54"/>
-    </row>
-    <row r="63" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="81" t="s">
+      <c r="B62" s="47"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="51"/>
+    </row>
+    <row r="63" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="83" t="s">
+      <c r="D64" s="91" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="73"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="98">
+      <c r="E64" s="84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="67"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="78"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="60">
         <v>6</v>
       </c>
-      <c r="B66" s="99" t="s">
+      <c r="B66" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="100" t="s">
+      <c r="C66" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="101">
+      <c r="D66" s="99">
         <f>SUM(D67:D72)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="94"/>
-      <c r="B67" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" s="97">
+      <c r="E66" s="62">
+        <f>SUM(E67:E72)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="87">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="53">
+      <c r="D68" s="85">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
       <c r="B69" s="40"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="52"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="88"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="49"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
       <c r="B70" s="40"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="52"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="86"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="49"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="52"/>
-    </row>
-    <row r="72" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="46"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="49"/>
+    </row>
+    <row r="72" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="54"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="35">
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
@@ -5387,22 +5384,6 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5412,189 +5393,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C06C624-1771-4C8C-8885-D55E5F26C417}">
-  <dimension ref="A2:S9"/>
+  <dimension ref="A2:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
-        <v>106</v>
+    <row r="2" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="44.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D5" s="111">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E5" s="111">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F5" s="111">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G5" s="111">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H5" s="112">
         <v>6</v>
       </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6" s="23">
-        <v>9</v>
-      </c>
-      <c r="L6" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="57" t="s">
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="23">
-        <v>100</v>
-      </c>
-      <c r="D7" s="23">
-        <v>95</v>
-      </c>
-      <c r="E7" s="23">
-        <v>86</v>
-      </c>
-      <c r="F7" s="23">
-        <v>66</v>
-      </c>
-      <c r="G7" s="23">
-        <v>60</v>
-      </c>
-      <c r="H7" s="23">
-        <v>45</v>
-      </c>
-      <c r="I7" s="23">
-        <v>44</v>
-      </c>
-      <c r="J7" s="23">
-        <v>25</v>
-      </c>
-      <c r="K7" s="23">
-        <v>20</v>
-      </c>
-      <c r="L7" s="23">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="57" t="s">
+      <c r="C6" s="108">
+        <f>112-27</f>
+        <v>85</v>
+      </c>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="102">
-        <f>$C$9 - ($C$9 * (C6 - 1) / ($B$2 - 1))</f>
-        <v>112</v>
-      </c>
-      <c r="D8" s="102">
-        <f t="shared" ref="D8:L8" si="0">$C$9 - ($C$9 * (D6 - 1) / ($B$2 - 1))</f>
-        <v>99.555555555555557</v>
-      </c>
-      <c r="E8" s="102">
+      <c r="C7" s="109">
+        <f>$C$8 - ($C$8 * (C5) / ($B$2))</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="D7" s="109">
+        <f t="shared" ref="D7:H7" si="0">$C$8 - ($C$8 * (D5) / ($B$2))</f>
+        <v>74.666666666666657</v>
+      </c>
+      <c r="E7" s="109">
         <f t="shared" si="0"/>
-        <v>87.111111111111114</v>
-      </c>
-      <c r="F8" s="102">
-        <f t="shared" si="0"/>
-        <v>74.666666666666657</v>
-      </c>
-      <c r="G8" s="102">
-        <f t="shared" si="0"/>
-        <v>62.222222222222221</v>
-      </c>
-      <c r="H8" s="102">
-        <f t="shared" si="0"/>
-        <v>49.777777777777779</v>
-      </c>
-      <c r="I8" s="102">
+        <v>56</v>
+      </c>
+      <c r="F7" s="109">
         <f t="shared" si="0"/>
         <v>37.333333333333329</v>
       </c>
-      <c r="J8" s="102">
+      <c r="G7" s="109">
         <f t="shared" si="0"/>
-        <v>24.888888888888886</v>
-      </c>
-      <c r="K8" s="102">
-        <f t="shared" si="0"/>
-        <v>12.444444444444443</v>
-      </c>
-      <c r="L8" s="102">
+        <v>18.666666666666671</v>
+      </c>
+      <c r="H7" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="57" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="C9">
-        <f>'product backlog'!$E12</f>
+      <c r="C8" s="116">
+        <f>'product backlog'!$G12</f>
         <v>112</v>
       </c>
-      <c r="D9" s="59">
-        <f>'product backlog'!$E12</f>
+      <c r="D8" s="116">
+        <f>'product backlog'!$G12</f>
         <v>112</v>
       </c>
-      <c r="E9" s="59">
-        <f>'product backlog'!$E12</f>
+      <c r="E8" s="116">
+        <f>'product backlog'!$G12</f>
         <v>112</v>
       </c>
-      <c r="F9" s="59">
-        <f>'product backlog'!$E12</f>
+      <c r="F8" s="116">
+        <f>'product backlog'!$G12</f>
         <v>112</v>
       </c>
-      <c r="G9" s="59">
-        <f>'product backlog'!$E12</f>
+      <c r="G8" s="116">
+        <f>'product backlog'!$G12</f>
         <v>112</v>
       </c>
-      <c r="H9" s="59">
-        <f>'product backlog'!$E12</f>
+      <c r="H8" s="117">
+        <f>'product backlog'!$G12</f>
         <v>112</v>
       </c>
-      <c r="I9" s="59">
-        <f>'product backlog'!$E12</f>
-        <v>112</v>
-      </c>
-      <c r="J9" s="59">
-        <f>'product backlog'!$E12</f>
-        <v>112</v>
-      </c>
-      <c r="K9" s="59">
-        <f>'product backlog'!$E12</f>
-        <v>112</v>
-      </c>
-      <c r="L9" s="59">
-        <f>'product backlog'!$E12</f>
-        <v>112</v>
-      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Documents/하늘보리 기능 정의 및 product backlog.xlsx
+++ b/Documents/하늘보리 기능 정의 및 product backlog.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joey3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joey3\HB\HaneulBori\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B5A1A-B562-4B14-ACF0-542056EA13FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F78DE-6461-43C7-A499-AA2731B5629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="612" windowWidth="19656" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="675" windowWidth="19875" windowHeight="13905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의" sheetId="1" r:id="rId1"/>
     <sheet name="product backlog" sheetId="2" r:id="rId2"/>
     <sheet name="burn down chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
   <si>
     <t>구분</t>
   </si>
@@ -1677,8 +1678,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
+    <t>완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>스프린트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1688,12 +1708,93 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 수 </t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
+      <t>목표</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차, 아이디어 정리 및 데이터베이스 정의</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피리트 목표</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>핵심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기능의 구현</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3차, UI 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 개발 + 테스트</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 스프린트 (완료된 스프린트까지)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/9 ~ 8/13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/16 ~ 9/3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/6 ~ 9/10</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1802,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1950,6 +2051,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2157,7 +2279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2318,67 +2440,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2393,12 +2455,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2422,20 +2478,8 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2456,6 +2500,87 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2554,7 +2679,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'burn down chart'!$B$6</c:f>
+              <c:f>'burn down chart'!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2589,10 +2714,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'burn down chart'!$C$5:$H$5</c:f>
+              <c:f>'burn down chart'!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2608,20 +2733,29 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'burn down chart'!$C$6:$H$6</c:f>
+              <c:f>'burn down chart'!$C$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,7 +2772,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'burn down chart'!$B$7</c:f>
+              <c:f>'burn down chart'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2673,10 +2807,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'burn down chart'!$C$5:$H$5</c:f>
+              <c:f>'burn down chart'!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2692,34 +2826,28 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'burn down chart'!$C$7:$H$7</c:f>
+              <c:f>'burn down chart'!$C$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>93.333333333333329</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.666666666666657</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.333333333333329</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2935,7 +3063,1493 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>burn down chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burn down chart'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>done</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'burn down chart'!$C$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'burn down chart'!$C$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-568A-473A-B8F0-140E96F44BE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burn down chart'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>todo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'burn down chart'!$C$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'burn down chart'!$C$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-568A-473A-B8F0-140E96F44BE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="640740895"/>
+        <c:axId val="640745055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="640740895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640745055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="640745055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640740895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>burn down chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burn down chart'!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>done</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'burn down chart'!$C$48:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'burn down chart'!$C$49:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AD1-444B-A26E-EC898820FF4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'burn down chart'!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>todo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'burn down chart'!$C$48:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'burn down chart'!$C$50:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AD1-444B-A26E-EC898820FF4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="862177583"/>
+        <c:axId val="862161775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="862177583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="862161775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="862161775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="862177583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>done</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96AB-43A5-87D9-47A016DF09AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>todo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96AB-43A5-87D9-47A016DF09AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="815111471"/>
+        <c:axId val="815113135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="815111471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815113135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="815113135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815111471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3478,20 +5092,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>718185</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>375283</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>64769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>222885</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>229783</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>73844</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3499,6 +6622,119 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9318D971-66D2-40D9-846E-528E6C85EAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376235</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>230735</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161473</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A288F16-3C13-4967-A480-AD8CC22FFBE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376235</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>230735</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>132898</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028EAD73-40D1-47FD-B6F8-BE3A15F177EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A0A92-B7F8-41E8-86BC-97582F4D0C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3726,17 +6962,17 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
+    <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -3760,7 +6996,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>55</v>
       </c>
@@ -3789,20 +7025,20 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="103" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
@@ -3810,22 +7046,22 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="78"/>
+    <row r="4" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="107" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -3842,9 +7078,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="72"/>
+    <row r="6" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="106"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="16" t="s">
         <v>42</v>
       </c>
@@ -3861,9 +7097,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="72"/>
+    <row r="7" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="106"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="17" t="s">
         <v>43</v>
       </c>
@@ -3880,9 +7116,9 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="65"/>
-      <c r="B8" s="72"/>
+    <row r="8" spans="1:25" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="17" t="s">
         <v>44</v>
       </c>
@@ -3899,9 +7135,9 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="72"/>
+    <row r="9" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="106"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
@@ -3916,9 +7152,9 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="79" t="s">
+    <row r="10" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="106"/>
+      <c r="B10" s="101" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3935,9 +7171,9 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="79"/>
+    <row r="11" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="106"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
@@ -3952,9 +7188,9 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="74" t="s">
+    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="106"/>
+      <c r="B12" s="102" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -3971,9 +7207,9 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="74"/>
+    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="106"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
@@ -3988,9 +7224,9 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="74" t="s">
+    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="106"/>
+      <c r="B14" s="102" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -4007,9 +7243,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="74"/>
+    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="106"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="19" t="s">
         <v>27</v>
       </c>
@@ -4024,8 +7260,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="106"/>
       <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
@@ -4043,8 +7279,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="99" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -4064,9 +7300,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66" t="s">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="106"/>
+      <c r="B18" s="98" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -4083,9 +7319,9 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="106"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
@@ -4100,9 +7336,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="106"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
@@ -4117,8 +7353,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="106"/>
       <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
@@ -4136,11 +7372,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -4157,9 +7393,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="69"/>
+    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="95"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="31" t="s">
         <v>17</v>
       </c>
@@ -4174,7 +7410,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -4185,7 +7421,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
@@ -4193,7 +7429,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4204,7 +7440,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4215,40 +7451,40 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="103" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="78"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="95"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="104"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="107" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -4261,9 +7497,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="72"/>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="106"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="16" t="s">
         <v>42</v>
       </c>
@@ -4274,9 +7510,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="72"/>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="106"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="17" t="s">
         <v>43</v>
       </c>
@@ -4287,9 +7523,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="72"/>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="106"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="17" t="s">
         <v>44</v>
       </c>
@@ -4300,9 +7536,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="72"/>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="106"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
@@ -4313,9 +7549,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="73" t="s">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="106"/>
+      <c r="B37" s="109" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -4328,9 +7564,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="73"/>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="106"/>
+      <c r="B38" s="109"/>
       <c r="C38" s="35" t="s">
         <v>21</v>
       </c>
@@ -4341,9 +7577,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="74" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="106"/>
+      <c r="B39" s="102" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -4356,9 +7592,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="74"/>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="106"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="13" t="s">
         <v>23</v>
       </c>
@@ -4369,9 +7605,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="74" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="106"/>
+      <c r="B41" s="102" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -4384,9 +7620,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="74"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="106"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="19" t="s">
         <v>27</v>
       </c>
@@ -4397,8 +7633,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="106"/>
       <c r="B43" s="22" t="s">
         <v>36</v>
       </c>
@@ -4412,8 +7648,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="99" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -4429,9 +7665,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="106"/>
+      <c r="B45" s="98" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="16" t="s">
@@ -4444,9 +7680,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="106"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="13" t="s">
         <v>32</v>
       </c>
@@ -4457,9 +7693,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="106"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="13" t="s">
         <v>34</v>
       </c>
@@ -4470,8 +7706,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="106"/>
       <c r="B48" s="20" t="s">
         <v>19</v>
       </c>
@@ -4485,11 +7721,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="100" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -4502,9 +7738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67"/>
-      <c r="B50" s="69"/>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="95"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="31" t="s">
         <v>17</v>
       </c>
@@ -4517,26 +7753,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A49:A50"/>
@@ -4546,6 +7762,26 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4557,116 +7793,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA63E826-C53F-44DA-A733-3EE59F2BB8B6}">
   <dimension ref="A4:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="78"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="104"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>1</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="79">
         <f>D16</f>
         <v>36</v>
       </c>
       <c r="E7" s="48">
         <f>E16</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42">
         <v>2</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="67">
         <f>D26</f>
         <v>14</v>
       </c>
       <c r="E8" s="49">
         <f>E26</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42">
         <v>3</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="65">
         <f>D36</f>
         <v>16</v>
       </c>
       <c r="E9" s="50">
         <f>E36</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42">
         <v>4</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="65">
         <f>D46</f>
         <v>12</v>
       </c>
@@ -4675,17 +7911,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42">
         <v>5</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="67">
         <f>D56</f>
         <v>2</v>
       </c>
@@ -4697,26 +7933,26 @@
         <v>87</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>6</v>
       </c>
       <c r="B12" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="71">
         <f>D66</f>
         <v>32</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="72">
         <f>E66</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>SUM(D7:D12)</f>
@@ -4724,654 +7960,593 @@
       </c>
       <c r="H12">
         <f>SUM(E7:E12)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="78"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="112"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="104"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <v>1</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="79">
         <f>SUM(D17:D22)</f>
         <v>36</v>
       </c>
-      <c r="E16" s="48">
-        <f>SUM(E17:E22)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="58"/>
       <c r="B17" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D17" s="67">
         <v>8</v>
       </c>
-      <c r="E17" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="49"/>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="65">
         <v>4</v>
       </c>
-      <c r="E18" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="67">
         <v>24</v>
       </c>
-      <c r="E19" s="49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="49"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="46"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="87"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="49"/>
     </row>
-    <row r="22" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="47"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="96"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="51"/>
     </row>
-    <row r="23" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
+    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="102"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="78"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="112"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="104"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="60">
         <v>2</v>
       </c>
       <c r="B26" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="99">
+      <c r="D26" s="77">
         <f>SUM(D27:D32)</f>
         <v>14</v>
       </c>
-      <c r="E26" s="62">
-        <f>SUM(E27:E32)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E26" s="62"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A27" s="58"/>
       <c r="B27" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="67">
         <v>4</v>
       </c>
-      <c r="E27" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="49"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="65">
         <v>2</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="50"/>
+      <c r="H28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="67">
         <v>8</v>
       </c>
-      <c r="E29" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="49"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="87"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="49"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="46"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="87"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="49"/>
     </row>
-    <row r="32" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="47"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="96"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="51"/>
     </row>
-    <row r="33" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="s">
+    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="90" t="s">
+      <c r="C34" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="91" t="s">
+      <c r="D34" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="102"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="78"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="112"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="104"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="60">
         <v>3</v>
       </c>
       <c r="B36" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="105">
+      <c r="D36" s="79">
         <f>SUM(D37:D42)</f>
         <v>16</v>
       </c>
-      <c r="E36" s="48">
-        <f>SUM(E37:E42)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="48"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="58"/>
       <c r="B37" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="87">
+      <c r="D37" s="67">
         <v>8</v>
       </c>
-      <c r="E37" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="49"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
       <c r="B38" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="89" t="s">
+      <c r="C38" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="85">
+      <c r="D38" s="65">
         <v>8</v>
       </c>
-      <c r="E38" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="50"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="40"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="87"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="49"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="87"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="49"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="46"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="87"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="49"/>
     </row>
-    <row r="42" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="47"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="96"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="51"/>
     </row>
-    <row r="43" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="82" t="s">
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="90" t="s">
+      <c r="C44" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="91" t="s">
+      <c r="D44" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="102"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="78"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="112"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="104"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="60">
         <v>4</v>
       </c>
       <c r="B46" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="99">
+      <c r="D46" s="77">
         <f>SUM(D47:D52)</f>
         <v>12</v>
       </c>
-      <c r="E46" s="62">
-        <f>SUM(E47:E52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="62"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="58"/>
       <c r="B47" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="87">
+      <c r="D47" s="67">
         <v>8</v>
       </c>
-      <c r="E47" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="49"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
       <c r="B48" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="89" t="s">
+      <c r="C48" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="85">
+      <c r="D48" s="65">
         <v>4</v>
       </c>
-      <c r="E48" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="50"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="40"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="87"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
       <c r="E49" s="49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="87"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="67"/>
       <c r="E50" s="49"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="46"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="87"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="49"/>
     </row>
-    <row r="52" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
       <c r="B52" s="47"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="96"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="51"/>
     </row>
-    <row r="53" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="82" t="s">
+    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="90" t="s">
+      <c r="C54" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="91" t="s">
+      <c r="D54" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="67"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="78"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="95"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="104"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="60">
         <v>5</v>
       </c>
-      <c r="B56" s="97" t="s">
+      <c r="B56" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="98" t="s">
+      <c r="C56" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="99">
+      <c r="D56" s="77">
         <f>SUM(D57:D62)</f>
         <v>2</v>
       </c>
-      <c r="E56" s="62">
-        <f>SUM(E57:E62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="62"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="42"/>
       <c r="B57" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="87">
+      <c r="D57" s="67">
         <v>2</v>
       </c>
-      <c r="E57" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="49"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="42"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="85"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="50"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="42"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="87"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="49"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="42"/>
       <c r="B60" s="40"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="87"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="49"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="42"/>
       <c r="B61" s="46"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="87"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="49"/>
     </row>
-    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="47"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="96"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="74"/>
       <c r="E62" s="51"/>
     </row>
-    <row r="63" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="82" t="s">
+    <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="90" t="s">
+      <c r="C64" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="91" t="s">
+      <c r="D64" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="67"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="78"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="95"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="104"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="60">
         <v>6</v>
       </c>
-      <c r="B66" s="97" t="s">
+      <c r="B66" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="98" t="s">
+      <c r="C66" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="99">
+      <c r="D66" s="77">
         <f>SUM(D67:D72)</f>
         <v>32</v>
       </c>
-      <c r="E66" s="62">
-        <f>SUM(E67:E72)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="62"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="42"/>
       <c r="B67" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="86" t="s">
+      <c r="C67" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D67" s="87">
+      <c r="D67" s="67">
         <v>16</v>
       </c>
-      <c r="E67" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="49"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="42"/>
       <c r="B68" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="89" t="s">
+      <c r="C68" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="85">
+      <c r="D68" s="65">
         <v>16</v>
       </c>
-      <c r="E68" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="50"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="42"/>
       <c r="B69" s="40"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="87"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="49"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="42"/>
       <c r="B70" s="40"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="87"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="49"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="42"/>
       <c r="B71" s="46"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="87"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="67"/>
       <c r="E71" s="49"/>
     </row>
-    <row r="72" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="47"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="96"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="74"/>
       <c r="E72" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
@@ -5384,6 +8559,29 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E44:E45"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5393,135 +8591,425 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C06C624-1771-4C8C-8885-D55E5F26C417}">
-  <dimension ref="A2:S8"/>
+  <dimension ref="A2:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>105</v>
-      </c>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="52"/>
       <c r="B2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="110"/>
-      <c r="C5" s="111">
-        <v>1</v>
-      </c>
-      <c r="D5" s="111">
-        <v>2</v>
-      </c>
-      <c r="E5" s="111">
-        <v>3</v>
-      </c>
-      <c r="F5" s="111">
-        <v>4</v>
-      </c>
-      <c r="G5" s="111">
         <v>5</v>
       </c>
-      <c r="H5" s="112">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="23"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="108">
-        <f>112-27</f>
-        <v>85</v>
-      </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="114"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
       <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="109">
-        <f>$C$8 - ($C$8 * (C5) / ($B$2))</f>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="D7" s="109">
-        <f t="shared" ref="D7:H7" si="0">$C$8 - ($C$8 * (D5) / ($B$2))</f>
-        <v>74.666666666666657</v>
-      </c>
-      <c r="E7" s="109">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="F7" s="109">
-        <f t="shared" si="0"/>
-        <v>37.333333333333329</v>
-      </c>
-      <c r="G7" s="109">
-        <f t="shared" si="0"/>
-        <v>18.666666666666671</v>
-      </c>
-      <c r="H7" s="109">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="84"/>
+      <c r="C7" s="85">
+        <v>1</v>
+      </c>
+      <c r="D7" s="85">
+        <v>2</v>
+      </c>
+      <c r="E7" s="85">
+        <v>3</v>
+      </c>
+      <c r="F7" s="85">
+        <v>4</v>
+      </c>
+      <c r="G7" s="86">
+        <v>5</v>
+      </c>
+      <c r="H7" s="63"/>
       <c r="I7" s="63"/>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-    </row>
-    <row r="8" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="116">
-        <f>'product backlog'!$G12</f>
-        <v>112</v>
-      </c>
-      <c r="D8" s="116">
-        <f>'product backlog'!$G12</f>
-        <v>112</v>
-      </c>
-      <c r="E8" s="116">
-        <f>'product backlog'!$G12</f>
-        <v>112</v>
-      </c>
-      <c r="F8" s="116">
-        <f>'product backlog'!$G12</f>
-        <v>112</v>
-      </c>
-      <c r="G8" s="116">
-        <f>'product backlog'!$G12</f>
-        <v>112</v>
-      </c>
-      <c r="H8" s="117">
-        <f>'product backlog'!$G12</f>
-        <v>112</v>
-      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="82">
+        <v>16</v>
+      </c>
+      <c r="D8" s="73">
+        <v>15</v>
+      </c>
+      <c r="E8" s="73">
+        <v>9</v>
+      </c>
+      <c r="F8" s="73">
+        <v>3</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+      <c r="H8" s="53"/>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="83">
+        <f>$C$10 - ($C$10 * (C7) / ($B$2))</f>
+        <v>16</v>
+      </c>
+      <c r="D9" s="83">
+        <f>$C$10 - ($C$10 * (D7) / ($B$2))</f>
+        <v>12</v>
+      </c>
+      <c r="E9" s="83">
+        <f>$C$10 - ($C$10 * (E7) / ($B$2))</f>
+        <v>8</v>
+      </c>
+      <c r="F9" s="83">
+        <f>$C$10 - ($C$10 * (F7) / ($B$2))</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="120">
+        <f>$C$10 - ($C$10 * (G7) / ($B$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="90">
+        <v>20</v>
+      </c>
+      <c r="D10" s="90">
+        <v>20</v>
+      </c>
+      <c r="E10" s="90">
+        <v>20</v>
+      </c>
+      <c r="F10" s="90">
+        <v>20</v>
+      </c>
+      <c r="G10" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="84"/>
+      <c r="C24" s="85">
+        <v>3</v>
+      </c>
+      <c r="D24" s="85">
+        <v>6</v>
+      </c>
+      <c r="E24" s="85">
+        <v>9</v>
+      </c>
+      <c r="F24" s="85">
+        <v>12</v>
+      </c>
+      <c r="G24" s="86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="82">
+        <v>58</v>
+      </c>
+      <c r="D25" s="73">
+        <v>40</v>
+      </c>
+      <c r="E25" s="73">
+        <v>25</v>
+      </c>
+      <c r="F25" s="73">
+        <v>13</v>
+      </c>
+      <c r="G25" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="83">
+        <f>$C$27 - ($C$27 * (C24) / ($B$21))</f>
+        <v>51.2</v>
+      </c>
+      <c r="D26" s="83">
+        <f t="shared" ref="D26:G26" si="0">$C$27 - ($C$27 * (D24) / ($B$21))</f>
+        <v>38.4</v>
+      </c>
+      <c r="E26" s="83">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="F26" s="83">
+        <f t="shared" si="0"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="G26" s="120">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="90">
+        <v>64</v>
+      </c>
+      <c r="D27" s="90">
+        <v>64</v>
+      </c>
+      <c r="E27" s="90">
+        <v>64</v>
+      </c>
+      <c r="F27" s="90">
+        <v>64</v>
+      </c>
+      <c r="G27" s="91">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="64"/>
+      <c r="B45" s="64">
+        <v>5</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="64"/>
+      <c r="B46" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="64"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="85">
+        <v>1</v>
+      </c>
+      <c r="D48" s="85">
+        <v>2</v>
+      </c>
+      <c r="E48" s="85">
+        <v>3</v>
+      </c>
+      <c r="F48" s="85">
+        <v>4</v>
+      </c>
+      <c r="G48" s="86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="64"/>
+      <c r="B49" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="82"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="88"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="64"/>
+      <c r="B50" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="83">
+        <f>$C$51 - ($C$51 * (C48) / ($B$45))</f>
+        <v>25.6</v>
+      </c>
+      <c r="D50" s="83">
+        <f t="shared" ref="D50:G50" si="1">$C$51 - ($C$51 * (D48) / ($B$45))</f>
+        <v>19.2</v>
+      </c>
+      <c r="E50" s="83">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
+      <c r="F50" s="83">
+        <f t="shared" si="1"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="G50" s="120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="64"/>
+      <c r="B51" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="90">
+        <v>32</v>
+      </c>
+      <c r="D51" s="90">
+        <v>32</v>
+      </c>
+      <c r="E51" s="90">
+        <v>32</v>
+      </c>
+      <c r="F51" s="90">
+        <v>32</v>
+      </c>
+      <c r="G51" s="91">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601DF9E8-4B76-45D9-91BD-49B6DE2B6D9F}">
+  <dimension ref="A6:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85">
+        <v>1</v>
+      </c>
+      <c r="D7" s="86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="82">
+        <v>64</v>
+      </c>
+      <c r="D8" s="88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="64"/>
+      <c r="B9" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="83">
+        <v>64</v>
+      </c>
+      <c r="D9" s="120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="90">
+        <v>84</v>
+      </c>
+      <c r="D10" s="91">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Documents/하늘보리 기능 정의 및 product backlog.xlsx
+++ b/Documents/하늘보리 기능 정의 및 product backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joey3\HB\HaneulBori\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F78DE-6461-43C7-A499-AA2731B5629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564EC088-3511-43BE-B290-F90F96F42F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="675" windowWidth="19875" windowHeight="13905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의" sheetId="1" r:id="rId1"/>
@@ -1766,8 +1766,53 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3차, UI 설계</t>
+    <t>전체 스프린트 (완료된 스프린트까지)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/9 ~ 8/13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/16 ~ 9/3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/6 ~ 9/10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
     </r>
     <r>
       <rPr>
@@ -1777,24 +1822,8 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 및 개발 + 테스트</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 스프린트 (완료된 스프린트까지)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/9 ~ 8/13</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/16 ~ 9/3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9/6 ~ 9/10</t>
+      <t xml:space="preserve"> 및 개발 + 1차 테스트</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2500,47 +2529,27 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2552,19 +2561,32 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2576,11 +2598,18 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3720,6 +3749,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6962,17 +7006,17 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="92"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+    <row r="1" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -6996,7 +7040,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>55</v>
       </c>
@@ -7025,20 +7069,20 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="107" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
@@ -7046,22 +7090,22 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="104"/>
+    <row r="4" spans="1:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="97"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="105" t="s">
+    <row r="5" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -7078,9 +7122,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="108"/>
+    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="95"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="16" t="s">
         <v>42</v>
       </c>
@@ -7097,9 +7141,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="106"/>
-      <c r="B7" s="108"/>
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="95"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="17" t="s">
         <v>43</v>
       </c>
@@ -7116,9 +7160,9 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="108"/>
+    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="95"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="17" t="s">
         <v>44</v>
       </c>
@@ -7135,9 +7179,9 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="106"/>
-      <c r="B9" s="108"/>
+    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="95"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
@@ -7152,9 +7196,9 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="101" t="s">
+    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="95"/>
+      <c r="B10" s="109" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -7171,9 +7215,9 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="101"/>
+    <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
@@ -7188,9 +7232,9 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="106"/>
-      <c r="B12" s="102" t="s">
+    <row r="12" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="95"/>
+      <c r="B12" s="104" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -7207,9 +7251,9 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="106"/>
-      <c r="B13" s="102"/>
+    <row r="13" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="95"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
@@ -7224,9 +7268,9 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="106"/>
-      <c r="B14" s="102" t="s">
+    <row r="14" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="95"/>
+      <c r="B14" s="104" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -7243,9 +7287,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="106"/>
-      <c r="B15" s="102"/>
+    <row r="15" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="95"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="19" t="s">
         <v>27</v>
       </c>
@@ -7260,8 +7304,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
+    <row r="16" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="95"/>
       <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
@@ -7279,8 +7323,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="99" t="s">
+    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -7300,9 +7344,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="106"/>
-      <c r="B18" s="98" t="s">
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="95"/>
+      <c r="B18" s="96" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -7319,9 +7363,9 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="106"/>
-      <c r="B19" s="98"/>
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="95"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
@@ -7336,9 +7380,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="106"/>
-      <c r="B20" s="98"/>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="95"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
@@ -7353,8 +7397,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="106"/>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="95"/>
       <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
@@ -7372,11 +7416,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="99" t="s">
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="98" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -7393,9 +7437,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="97"/>
+    <row r="23" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="97"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="31" t="s">
         <v>17</v>
       </c>
@@ -7410,7 +7454,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7421,7 +7465,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
@@ -7429,7 +7473,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7440,7 +7484,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7451,40 +7495,40 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="94" t="s">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E30" s="107" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="104"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="105" t="s">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="97"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="108"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -7497,9 +7541,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="106"/>
-      <c r="B33" s="108"/>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="95"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="16" t="s">
         <v>42</v>
       </c>
@@ -7510,9 +7554,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="106"/>
-      <c r="B34" s="108"/>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="95"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="17" t="s">
         <v>43</v>
       </c>
@@ -7523,9 +7567,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="106"/>
-      <c r="B35" s="108"/>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="17" t="s">
         <v>44</v>
       </c>
@@ -7536,9 +7580,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="106"/>
-      <c r="B36" s="108"/>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="95"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
@@ -7549,9 +7593,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="106"/>
-      <c r="B37" s="109" t="s">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="95"/>
+      <c r="B37" s="103" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -7564,9 +7608,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="106"/>
-      <c r="B38" s="109"/>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="95"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="35" t="s">
         <v>21</v>
       </c>
@@ -7577,9 +7621,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="106"/>
-      <c r="B39" s="102" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="95"/>
+      <c r="B39" s="104" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -7592,9 +7636,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="106"/>
-      <c r="B40" s="102"/>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="95"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="13" t="s">
         <v>23</v>
       </c>
@@ -7605,9 +7649,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="106"/>
-      <c r="B41" s="102" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="95"/>
+      <c r="B41" s="104" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -7620,9 +7664,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="106"/>
-      <c r="B42" s="102"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="95"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="19" t="s">
         <v>27</v>
       </c>
@@ -7633,8 +7677,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="106"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="95"/>
       <c r="B43" s="22" t="s">
         <v>36</v>
       </c>
@@ -7648,8 +7692,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99" t="s">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="94" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -7665,9 +7709,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="106"/>
-      <c r="B45" s="98" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="95"/>
+      <c r="B45" s="96" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="16" t="s">
@@ -7680,9 +7724,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="106"/>
-      <c r="B46" s="98"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="95"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="13" t="s">
         <v>32</v>
       </c>
@@ -7693,9 +7737,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="106"/>
-      <c r="B47" s="98"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="95"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="13" t="s">
         <v>34</v>
       </c>
@@ -7706,8 +7750,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="106"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="95"/>
       <c r="B48" s="20" t="s">
         <v>19</v>
       </c>
@@ -7721,11 +7765,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="99" t="s">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="98" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -7738,9 +7782,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="97"/>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="97"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="31" t="s">
         <v>17</v>
       </c>
@@ -7753,6 +7797,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A49:A50"/>
@@ -7762,26 +7826,6 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7797,45 +7841,45 @@
       <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="104"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="108"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>1</v>
       </c>
@@ -7854,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>2</v>
       </c>
@@ -7873,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>3</v>
       </c>
@@ -7892,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>4</v>
       </c>
@@ -7911,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>5</v>
       </c>
@@ -7936,7 +7980,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43">
         <v>6</v>
       </c>
@@ -7963,32 +8007,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="111" t="s">
+    <row r="13" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="104"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="117"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="44">
         <v>1</v>
       </c>
@@ -8004,7 +8048,7 @@
       </c>
       <c r="E16" s="48"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="41" t="s">
         <v>80</v>
@@ -8020,7 +8064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="40" t="s">
         <v>81</v>
@@ -8033,7 +8077,7 @@
       </c>
       <c r="E18" s="50"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="40" t="s">
         <v>84</v>
@@ -8046,53 +8090,53 @@
       </c>
       <c r="E19" s="49"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="40"/>
       <c r="C20" s="66"/>
       <c r="D20" s="67"/>
       <c r="E20" s="49"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="46"/>
       <c r="C21" s="69"/>
       <c r="D21" s="67"/>
       <c r="E21" s="49"/>
     </row>
-    <row r="22" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57"/>
       <c r="B22" s="47"/>
       <c r="C22" s="70"/>
       <c r="D22" s="74"/>
       <c r="E22" s="51"/>
     </row>
-    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="111" t="s">
+    <row r="23" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="115" t="s">
+      <c r="C24" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="110" t="s">
+      <c r="E24" s="120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="104"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="117"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="108"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="60">
         <v>2</v>
       </c>
@@ -8108,7 +8152,7 @@
       </c>
       <c r="E26" s="62"/>
     </row>
-    <row r="27" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="41" t="s">
         <v>89</v>
@@ -8121,7 +8165,7 @@
       </c>
       <c r="E27" s="49"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="40" t="s">
         <v>86</v>
@@ -8137,7 +8181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="40" t="s">
         <v>91</v>
@@ -8150,53 +8194,53 @@
       </c>
       <c r="E29" s="49"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
       <c r="D30" s="67"/>
       <c r="E30" s="49"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
       <c r="B31" s="46"/>
       <c r="C31" s="69"/>
       <c r="D31" s="67"/>
       <c r="E31" s="49"/>
     </row>
-    <row r="32" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="47"/>
       <c r="C32" s="70"/>
       <c r="D32" s="74"/>
       <c r="E32" s="51"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="111" t="s">
+    <row r="33" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="110" t="s">
+      <c r="E34" s="120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="112"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="104"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="117"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="108"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="60">
         <v>3</v>
       </c>
@@ -8212,7 +8256,7 @@
       </c>
       <c r="E36" s="48"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="58"/>
       <c r="B37" s="46" t="s">
         <v>18</v>
@@ -8225,7 +8269,7 @@
       </c>
       <c r="E37" s="49"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="56"/>
       <c r="B38" s="40" t="s">
         <v>23</v>
@@ -8238,60 +8282,60 @@
       </c>
       <c r="E38" s="50"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="56"/>
       <c r="B39" s="40"/>
       <c r="C39" s="66"/>
       <c r="D39" s="67"/>
       <c r="E39" s="49"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
       <c r="D40" s="67"/>
       <c r="E40" s="49"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
       <c r="B41" s="46"/>
       <c r="C41" s="69"/>
       <c r="D41" s="67"/>
       <c r="E41" s="49"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="57"/>
       <c r="B42" s="47"/>
       <c r="C42" s="70"/>
       <c r="D42" s="74"/>
       <c r="E42" s="51"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="111" t="s">
+    <row r="43" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="117" t="s">
+      <c r="D44" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="110" t="s">
+      <c r="E44" s="120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="112"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="104"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="117"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="108"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="60">
         <v>4</v>
       </c>
@@ -8307,7 +8351,7 @@
       </c>
       <c r="E46" s="62"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="58"/>
       <c r="B47" s="46" t="s">
         <v>95</v>
@@ -8320,7 +8364,7 @@
       </c>
       <c r="E47" s="49"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
       <c r="B48" s="40" t="s">
         <v>97</v>
@@ -8333,60 +8377,60 @@
       </c>
       <c r="E48" s="50"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="40"/>
       <c r="C49" s="66"/>
       <c r="D49" s="67"/>
       <c r="E49" s="49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
       <c r="D50" s="67"/>
       <c r="E50" s="49"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="46"/>
       <c r="C51" s="69"/>
       <c r="D51" s="67"/>
       <c r="E51" s="49"/>
     </row>
-    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="57"/>
       <c r="B52" s="47"/>
       <c r="C52" s="70"/>
       <c r="D52" s="74"/>
       <c r="E52" s="51"/>
     </row>
-    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="111" t="s">
+    <row r="53" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="115" t="s">
+      <c r="C54" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="110" t="s">
+      <c r="E54" s="120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
-      <c r="B55" s="97"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="104"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="97"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="108"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="60">
         <v>5</v>
       </c>
@@ -8402,7 +8446,7 @@
       </c>
       <c r="E56" s="62"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="41" t="s">
         <v>99</v>
@@ -8415,67 +8459,67 @@
       </c>
       <c r="E57" s="49"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="40"/>
       <c r="C58" s="68"/>
       <c r="D58" s="65"/>
       <c r="E58" s="50"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="40"/>
       <c r="C59" s="68"/>
       <c r="D59" s="67"/>
       <c r="E59" s="49"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="40"/>
       <c r="C60" s="66"/>
       <c r="D60" s="67"/>
       <c r="E60" s="49"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="46"/>
       <c r="C61" s="69"/>
       <c r="D61" s="67"/>
       <c r="E61" s="49"/>
     </row>
-    <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="47"/>
       <c r="C62" s="70"/>
       <c r="D62" s="74"/>
       <c r="E62" s="51"/>
     </row>
-    <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="111" t="s">
+    <row r="63" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="112" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="115" t="s">
+      <c r="C64" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="117" t="s">
+      <c r="D64" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="110" t="s">
+      <c r="E64" s="120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="95"/>
-      <c r="B65" s="97"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="104"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="97"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="108"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="60">
         <v>6</v>
       </c>
@@ -8491,7 +8535,7 @@
       </c>
       <c r="E66" s="62"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
       <c r="B67" s="41" t="s">
         <v>101</v>
@@ -8504,7 +8548,7 @@
       </c>
       <c r="E67" s="49"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="40" t="s">
         <v>102</v>
@@ -8517,28 +8561,28 @@
       </c>
       <c r="E68" s="50"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
       <c r="B69" s="40"/>
       <c r="C69" s="68"/>
       <c r="D69" s="67"/>
       <c r="E69" s="49"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
       <c r="B70" s="40"/>
       <c r="C70" s="66"/>
       <c r="D70" s="67"/>
       <c r="E70" s="49"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="46"/>
       <c r="C71" s="69"/>
       <c r="D71" s="67"/>
       <c r="E71" s="49"/>
     </row>
-    <row r="72" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
       <c r="B72" s="47"/>
       <c r="C72" s="70"/>
@@ -8547,6 +8591,29 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
@@ -8559,29 +8626,6 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E44:E45"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8593,30 +8637,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C06C624-1771-4C8C-8885-D55E5F26C417}">
   <dimension ref="A2:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119" t="s">
+    <row r="6" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="92" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -8630,7 +8674,7 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="52"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="84"/>
       <c r="C7" s="85">
         <v>1</v>
@@ -8652,7 +8696,7 @@
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="87" t="s">
         <v>73</v>
       </c>
@@ -8676,7 +8720,7 @@
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="87" t="s">
         <v>72</v>
       </c>
@@ -8696,12 +8740,12 @@
         <f>$C$10 - ($C$10 * (F7) / ($B$2))</f>
         <v>4</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="93">
         <f>$C$10 - ($C$10 * (G7) / ($B$2))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="89" t="s">
         <v>74</v>
       </c>
@@ -8721,17 +8765,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="64">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="59" t="s">
         <v>108</v>
       </c>
@@ -8739,7 +8783,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="84"/>
       <c r="C24" s="85">
         <v>3</v>
@@ -8757,7 +8801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="87" t="s">
         <v>73</v>
       </c>
@@ -8777,7 +8821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="87" t="s">
         <v>72</v>
       </c>
@@ -8797,12 +8841,12 @@
         <f t="shared" si="0"/>
         <v>12.799999999999997</v>
       </c>
-      <c r="G26" s="120">
+      <c r="G26" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="89" t="s">
         <v>74</v>
       </c>
@@ -8822,7 +8866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="64"/>
       <c r="B45" s="64">
         <v>5</v>
@@ -8833,10 +8877,10 @@
       <c r="F45" s="64"/>
       <c r="G45" s="64"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="64"/>
       <c r="B46" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
@@ -8844,12 +8888,12 @@
       <c r="F46" s="64"/>
       <c r="G46" s="64"/>
     </row>
-    <row r="47" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="59" t="s">
         <v>108</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
@@ -8857,7 +8901,7 @@
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
       <c r="B48" s="84"/>
       <c r="C48" s="85">
@@ -8876,18 +8920,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="64"/>
       <c r="B49" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="88"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="82">
+        <v>29</v>
+      </c>
+      <c r="D49" s="73">
+        <v>27</v>
+      </c>
+      <c r="E49" s="73">
+        <v>12</v>
+      </c>
+      <c r="F49" s="73">
+        <v>6</v>
+      </c>
+      <c r="G49" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
       <c r="B50" s="87" t="s">
         <v>72</v>
@@ -8908,12 +8962,12 @@
         <f t="shared" si="1"/>
         <v>6.3999999999999986</v>
       </c>
-      <c r="G50" s="120">
+      <c r="G50" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="64"/>
       <c r="B51" s="89" t="s">
         <v>74</v>
@@ -8950,22 +9004,22 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119" t="s">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="92" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="84"/>
       <c r="C7" s="85">
@@ -8975,7 +9029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="87" t="s">
         <v>73</v>
@@ -8987,7 +9041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="87" t="s">
         <v>72</v>
@@ -8995,11 +9049,11 @@
       <c r="C9" s="83">
         <v>64</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="93">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64"/>
       <c r="B10" s="89" t="s">
         <v>74</v>

--- a/Documents/하늘보리 기능 정의 및 product backlog.xlsx
+++ b/Documents/하늘보리 기능 정의 및 product backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joey3\HB\HaneulBori\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564EC088-3511-43BE-B290-F90F96F42F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650B3707-EEA4-4EA3-864C-8563D50262EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="1275" windowWidth="19875" windowHeight="13905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능 정의" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="118">
   <si>
     <t>구분</t>
   </si>
@@ -1823,6 +1823,52 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 및 개발 + 1차 테스트</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/13 ~ 10/1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 추가 및 편의기능 구현 (sns 추가, 설정, 유저 정보 관리 등)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5차, 최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 테스트 및 이슈 해결</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1831,7 +1877,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2101,6 +2147,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2308,7 +2361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2531,25 +2584,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2561,32 +2637,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,16 +2661,7 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4160,30 +4214,36 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$D$7</c:f>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$D$8</c:f>
+              <c:f>Sheet1!$C$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4191,7 +4251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96AB-43A5-87D9-47A016DF09AD}"/>
+              <c16:uniqueId val="{00000000-75C5-40EC-998A-8827A0AB24F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4235,29 +4295,35 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$D$7</c:f>
+              <c:f>Sheet1!$C$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$D$9</c:f>
+              <c:f>Sheet1!$C$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4266,7 +4332,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-96AB-43A5-87D9-47A016DF09AD}"/>
+              <c16:uniqueId val="{00000001-75C5-40EC-998A-8827A0AB24F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4280,11 +4346,116 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="815111471"/>
-        <c:axId val="815113135"/>
+        <c:axId val="528590160"/>
+        <c:axId val="528590992"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$7:$E$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$10:$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>116</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-75C5-40EC-998A-8827A0AB24F1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="815111471"/>
+        <c:axId val="528590160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4498,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="815113135"/>
+        <c:crossAx val="528590992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4335,9 +4506,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="815113135"/>
+        <c:axId val="528590992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="116"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4386,7 +4559,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="815111471"/>
+        <c:crossAx val="528590160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6762,23 +6935,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A0A92-B7F8-41E8-86BC-97582F4D0C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE08C997-4576-4EF6-86D3-6D982D6CCF1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7006,17 +7179,17 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="110"/>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+    <row r="1" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
@@ -7040,7 +7213,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>55</v>
       </c>
@@ -7069,20 +7242,20 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="106" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="4"/>
@@ -7090,22 +7263,22 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="108"/>
+    <row r="4" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="98"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="107"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="110" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -7122,9 +7295,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="102"/>
+    <row r="6" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="109"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="16" t="s">
         <v>42</v>
       </c>
@@ -7141,9 +7314,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="102"/>
+    <row r="7" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="109"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="17" t="s">
         <v>43</v>
       </c>
@@ -7160,9 +7333,9 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="95"/>
-      <c r="B8" s="102"/>
+    <row r="8" spans="1:25" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="17" t="s">
         <v>44</v>
       </c>
@@ -7179,9 +7352,9 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="102"/>
+    <row r="9" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="109"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
@@ -7196,9 +7369,9 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="109" t="s">
+    <row r="10" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="109"/>
+      <c r="B10" s="104" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -7215,9 +7388,9 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="109"/>
+    <row r="11" spans="1:25" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="109"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
@@ -7232,9 +7405,9 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="104" t="s">
+    <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="109"/>
+      <c r="B12" s="105" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -7251,9 +7424,9 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="104"/>
+    <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="109"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="13" t="s">
         <v>23</v>
       </c>
@@ -7268,9 +7441,9 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="104" t="s">
+    <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="109"/>
+      <c r="B14" s="105" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -7287,9 +7460,9 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="104"/>
+    <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="109"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="19" t="s">
         <v>27</v>
       </c>
@@ -7304,8 +7477,8 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
+    <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="109"/>
       <c r="B16" s="10" t="s">
         <v>36</v>
       </c>
@@ -7323,8 +7496,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="102" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -7344,9 +7517,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96" t="s">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="109"/>
+      <c r="B18" s="101" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -7363,9 +7536,9 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="96"/>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="109"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
@@ -7380,9 +7553,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="96"/>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="109"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
@@ -7397,8 +7570,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
+    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="109"/>
       <c r="B21" s="9" t="s">
         <v>19</v>
       </c>
@@ -7416,11 +7589,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -7437,9 +7610,9 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
-      <c r="B23" s="99"/>
+    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="98"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="31" t="s">
         <v>17</v>
       </c>
@@ -7454,7 +7627,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7465,7 +7638,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
@@ -7473,7 +7646,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7484,7 +7657,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7495,40 +7668,40 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="105" t="s">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="107" t="s">
+      <c r="E30" s="106" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="108"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="100" t="s">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="98"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="107"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="110" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -7541,9 +7714,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="102"/>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="109"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="16" t="s">
         <v>42</v>
       </c>
@@ -7554,9 +7727,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="102"/>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="109"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="17" t="s">
         <v>43</v>
       </c>
@@ -7567,9 +7740,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="102"/>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="109"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="17" t="s">
         <v>44</v>
       </c>
@@ -7580,9 +7753,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
-      <c r="B36" s="102"/>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="109"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
@@ -7593,9 +7766,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="95"/>
-      <c r="B37" s="103" t="s">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="109"/>
+      <c r="B37" s="112" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -7608,9 +7781,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="103"/>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="109"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="35" t="s">
         <v>21</v>
       </c>
@@ -7621,9 +7794,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
-      <c r="B39" s="104" t="s">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="109"/>
+      <c r="B39" s="105" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -7636,9 +7809,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="104"/>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="109"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="13" t="s">
         <v>23</v>
       </c>
@@ -7649,9 +7822,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
-      <c r="B41" s="104" t="s">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="109"/>
+      <c r="B41" s="105" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -7664,9 +7837,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
-      <c r="B42" s="104"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="109"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="19" t="s">
         <v>27</v>
       </c>
@@ -7677,8 +7850,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="109"/>
       <c r="B43" s="22" t="s">
         <v>36</v>
       </c>
@@ -7692,8 +7865,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="102" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -7709,9 +7882,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="96" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="109"/>
+      <c r="B45" s="101" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="16" t="s">
@@ -7724,9 +7897,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
-      <c r="B46" s="96"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="109"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="13" t="s">
         <v>32</v>
       </c>
@@ -7737,9 +7910,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="96"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="109"/>
+      <c r="B47" s="101"/>
       <c r="C47" s="13" t="s">
         <v>34</v>
       </c>
@@ -7750,8 +7923,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="109"/>
       <c r="B48" s="20" t="s">
         <v>19</v>
       </c>
@@ -7765,11 +7938,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="94" t="s">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -7782,9 +7955,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="97"/>
-      <c r="B50" s="99"/>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="98"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="31" t="s">
         <v>17</v>
       </c>
@@ -7797,26 +7970,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A49:A50"/>
@@ -7826,6 +7979,26 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7841,45 +8014,45 @@
       <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="113" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="108"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="107"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>1</v>
       </c>
@@ -7898,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42">
         <v>2</v>
       </c>
@@ -7917,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42">
         <v>3</v>
       </c>
@@ -7936,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42">
         <v>4</v>
       </c>
@@ -7955,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42">
         <v>5</v>
       </c>
@@ -7980,7 +8153,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>6</v>
       </c>
@@ -8007,32 +8180,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="112" t="s">
+    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="113" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="108"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="115"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="107"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="44">
         <v>1</v>
       </c>
@@ -8048,7 +8221,7 @@
       </c>
       <c r="E16" s="48"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="58"/>
       <c r="B17" s="41" t="s">
         <v>80</v>
@@ -8064,7 +8237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="40" t="s">
         <v>81</v>
@@ -8077,7 +8250,7 @@
       </c>
       <c r="E18" s="50"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="40" t="s">
         <v>84</v>
@@ -8090,53 +8263,53 @@
       </c>
       <c r="E19" s="49"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="40"/>
       <c r="C20" s="66"/>
       <c r="D20" s="67"/>
       <c r="E20" s="49"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="46"/>
       <c r="C21" s="69"/>
       <c r="D21" s="67"/>
       <c r="E21" s="49"/>
     </row>
-    <row r="22" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="47"/>
       <c r="C22" s="70"/>
       <c r="D22" s="74"/>
       <c r="E22" s="51"/>
     </row>
-    <row r="23" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="112" t="s">
+    <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="120" t="s">
+      <c r="E24" s="113" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="108"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="115"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="107"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="60">
         <v>2</v>
       </c>
@@ -8152,7 +8325,7 @@
       </c>
       <c r="E26" s="62"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A27" s="58"/>
       <c r="B27" s="41" t="s">
         <v>89</v>
@@ -8165,7 +8338,7 @@
       </c>
       <c r="E27" s="49"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="40" t="s">
         <v>86</v>
@@ -8181,7 +8354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="40" t="s">
         <v>91</v>
@@ -8194,53 +8367,53 @@
       </c>
       <c r="E29" s="49"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
       <c r="D30" s="67"/>
       <c r="E30" s="49"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="46"/>
       <c r="C31" s="69"/>
       <c r="D31" s="67"/>
       <c r="E31" s="49"/>
     </row>
-    <row r="32" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="47"/>
       <c r="C32" s="70"/>
       <c r="D32" s="74"/>
       <c r="E32" s="51"/>
     </row>
-    <row r="33" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="112" t="s">
+    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="116" t="s">
+      <c r="D34" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="120" t="s">
+      <c r="E34" s="113" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="108"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="115"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="107"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="60">
         <v>3</v>
       </c>
@@ -8256,7 +8429,7 @@
       </c>
       <c r="E36" s="48"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="58"/>
       <c r="B37" s="46" t="s">
         <v>18</v>
@@ -8269,7 +8442,7 @@
       </c>
       <c r="E37" s="49"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
       <c r="B38" s="40" t="s">
         <v>23</v>
@@ -8282,60 +8455,60 @@
       </c>
       <c r="E38" s="50"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="40"/>
       <c r="C39" s="66"/>
       <c r="D39" s="67"/>
       <c r="E39" s="49"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
       <c r="D40" s="67"/>
       <c r="E40" s="49"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="46"/>
       <c r="C41" s="69"/>
       <c r="D41" s="67"/>
       <c r="E41" s="49"/>
     </row>
-    <row r="42" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="47"/>
       <c r="C42" s="70"/>
       <c r="D42" s="74"/>
       <c r="E42" s="51"/>
     </row>
-    <row r="43" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="112" t="s">
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="114" t="s">
+      <c r="C44" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="116" t="s">
+      <c r="D44" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="120" t="s">
+      <c r="E44" s="113" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="117"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="108"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="115"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="107"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="60">
         <v>4</v>
       </c>
@@ -8351,7 +8524,7 @@
       </c>
       <c r="E46" s="62"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="58"/>
       <c r="B47" s="46" t="s">
         <v>95</v>
@@ -8364,7 +8537,7 @@
       </c>
       <c r="E47" s="49"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
       <c r="B48" s="40" t="s">
         <v>97</v>
@@ -8377,60 +8550,60 @@
       </c>
       <c r="E48" s="50"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="40"/>
       <c r="C49" s="66"/>
       <c r="D49" s="67"/>
       <c r="E49" s="49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
       <c r="D50" s="67"/>
       <c r="E50" s="49"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="46"/>
       <c r="C51" s="69"/>
       <c r="D51" s="67"/>
       <c r="E51" s="49"/>
     </row>
-    <row r="52" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
       <c r="B52" s="47"/>
       <c r="C52" s="70"/>
       <c r="D52" s="74"/>
       <c r="E52" s="51"/>
     </row>
-    <row r="53" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="112" t="s">
+    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="113" t="s">
+      <c r="B54" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="114" t="s">
+      <c r="C54" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="116" t="s">
+      <c r="D54" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="120" t="s">
+      <c r="E54" s="113" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="97"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="108"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="98"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="107"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="60">
         <v>5</v>
       </c>
@@ -8446,7 +8619,7 @@
       </c>
       <c r="E56" s="62"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="42"/>
       <c r="B57" s="41" t="s">
         <v>99</v>
@@ -8459,67 +8632,67 @@
       </c>
       <c r="E57" s="49"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="42"/>
       <c r="B58" s="40"/>
       <c r="C58" s="68"/>
       <c r="D58" s="65"/>
       <c r="E58" s="50"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="42"/>
       <c r="B59" s="40"/>
       <c r="C59" s="68"/>
       <c r="D59" s="67"/>
       <c r="E59" s="49"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="42"/>
       <c r="B60" s="40"/>
       <c r="C60" s="66"/>
       <c r="D60" s="67"/>
       <c r="E60" s="49"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="42"/>
       <c r="B61" s="46"/>
       <c r="C61" s="69"/>
       <c r="D61" s="67"/>
       <c r="E61" s="49"/>
     </row>
-    <row r="62" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="47"/>
       <c r="C62" s="70"/>
       <c r="D62" s="74"/>
       <c r="E62" s="51"/>
     </row>
-    <row r="63" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="112" t="s">
+    <row r="63" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="114" t="s">
+      <c r="C64" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="116" t="s">
+      <c r="D64" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="120" t="s">
+      <c r="E64" s="113" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="97"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="108"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="98"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="107"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="60">
         <v>6</v>
       </c>
@@ -8535,7 +8708,7 @@
       </c>
       <c r="E66" s="62"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="42"/>
       <c r="B67" s="41" t="s">
         <v>101</v>
@@ -8548,7 +8721,7 @@
       </c>
       <c r="E67" s="49"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="42"/>
       <c r="B68" s="40" t="s">
         <v>102</v>
@@ -8561,28 +8734,28 @@
       </c>
       <c r="E68" s="50"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="42"/>
       <c r="B69" s="40"/>
       <c r="C69" s="68"/>
       <c r="D69" s="67"/>
       <c r="E69" s="49"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="42"/>
       <c r="B70" s="40"/>
       <c r="C70" s="66"/>
       <c r="D70" s="67"/>
       <c r="E70" s="49"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="42"/>
       <c r="B71" s="46"/>
       <c r="C71" s="69"/>
       <c r="D71" s="67"/>
       <c r="E71" s="49"/>
     </row>
-    <row r="72" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="47"/>
       <c r="C72" s="70"/>
@@ -8591,29 +8764,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
@@ -8626,6 +8776,29 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E44:E45"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8635,31 +8808,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C06C624-1771-4C8C-8885-D55E5F26C417}">
-  <dimension ref="A2:R51"/>
+  <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="52"/>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5" s="52" t="s">
         <v>111</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92" t="s">
         <v>106</v>
       </c>
@@ -8674,7 +8847,7 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="52"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="84"/>
       <c r="C7" s="85">
         <v>1</v>
@@ -8696,7 +8869,7 @@
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="87" t="s">
         <v>73</v>
       </c>
@@ -8720,7 +8893,7 @@
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="87" t="s">
         <v>72</v>
       </c>
@@ -8745,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="89" t="s">
         <v>74</v>
       </c>
@@ -8765,17 +8938,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="64">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="52" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
         <v>108</v>
       </c>
@@ -8783,7 +8956,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="84"/>
       <c r="C24" s="85">
         <v>3</v>
@@ -8801,7 +8974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="87" t="s">
         <v>73</v>
       </c>
@@ -8821,7 +8994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="87" t="s">
         <v>72</v>
       </c>
@@ -8846,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="89" t="s">
         <v>74</v>
       </c>
@@ -8866,7 +9039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="64"/>
       <c r="B45" s="64">
         <v>5</v>
@@ -8877,7 +9050,7 @@
       <c r="F45" s="64"/>
       <c r="G45" s="64"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="64"/>
       <c r="B46" s="52" t="s">
         <v>113</v>
@@ -8888,7 +9061,7 @@
       <c r="F46" s="64"/>
       <c r="G46" s="64"/>
     </row>
-    <row r="47" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="59" t="s">
         <v>108</v>
       </c>
@@ -8901,7 +9074,7 @@
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="64"/>
       <c r="B48" s="84"/>
       <c r="C48" s="85">
@@ -8920,7 +9093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="64"/>
       <c r="B49" s="87" t="s">
         <v>73</v>
@@ -8941,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="64"/>
       <c r="B50" s="87" t="s">
         <v>72</v>
@@ -8967,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
       <c r="B51" s="89" t="s">
         <v>74</v>
@@ -8986,6 +9159,136 @@
       </c>
       <c r="G51" s="91">
         <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="94"/>
+      <c r="B71" s="94">
+        <v>15</v>
+      </c>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="94"/>
+      <c r="B72" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="94"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="85">
+        <v>3</v>
+      </c>
+      <c r="D74" s="85">
+        <v>6</v>
+      </c>
+      <c r="E74" s="85">
+        <v>9</v>
+      </c>
+      <c r="F74" s="85">
+        <v>12</v>
+      </c>
+      <c r="G74" s="86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="94"/>
+      <c r="B75" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="82">
+        <v>29</v>
+      </c>
+      <c r="D75" s="73">
+        <v>27</v>
+      </c>
+      <c r="E75" s="73">
+        <v>12</v>
+      </c>
+      <c r="F75" s="73">
+        <v>6</v>
+      </c>
+      <c r="G75" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="94"/>
+      <c r="B76" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="83">
+        <f>$C$77 - ($C$77 * (C74) / ($B$71))</f>
+        <v>51.2</v>
+      </c>
+      <c r="D76" s="83">
+        <f t="shared" ref="D76:G76" si="2">$C$77 - ($C$77 * (D74) / ($B$71))</f>
+        <v>38.4</v>
+      </c>
+      <c r="E76" s="83">
+        <f t="shared" si="2"/>
+        <v>25.6</v>
+      </c>
+      <c r="F76" s="83">
+        <f t="shared" si="2"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="G76" s="93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="94"/>
+      <c r="B77" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="90">
+        <v>64</v>
+      </c>
+      <c r="D77" s="90">
+        <v>64</v>
+      </c>
+      <c r="E77" s="90">
+        <v>64</v>
+      </c>
+      <c r="F77" s="90">
+        <v>64</v>
+      </c>
+      <c r="G77" s="91">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -8998,18 +9301,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601DF9E8-4B76-45D9-91BD-49B6DE2B6D9F}">
-  <dimension ref="A6:D10"/>
+  <dimension ref="A6:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92" t="s">
         <v>106</v>
       </c>
@@ -9019,50 +9322,62 @@
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="64"/>
       <c r="B7" s="84"/>
       <c r="C7" s="85">
         <v>1</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="85">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="64"/>
       <c r="B8" s="87" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="82">
-        <v>64</v>
-      </c>
-      <c r="D8" s="88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D8" s="73">
+        <v>35</v>
+      </c>
+      <c r="E8" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="64"/>
       <c r="B9" s="87" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="83">
-        <v>64</v>
-      </c>
-      <c r="D9" s="93">
+        <v>96</v>
+      </c>
+      <c r="D9" s="83">
+        <v>32</v>
+      </c>
+      <c r="E9" s="88">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
       <c r="B10" s="89" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="90">
-        <v>84</v>
-      </c>
-      <c r="D10" s="91">
-        <v>84</v>
+        <v>116</v>
+      </c>
+      <c r="D10" s="90">
+        <v>116</v>
+      </c>
+      <c r="E10" s="91">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
